--- a/data/2023/ssg/6,16_DE-12.xlsx
+++ b/data/2023/ssg/6,16_DE-12.xlsx
@@ -910,7 +910,7 @@
     <t>1.1975 -</t>
   </si>
   <si>
-    <t>4;30;Re 13</t>
+    <t>4;7;30;Re 13</t>
   </si>
   <si>
     <t>1198041-2</t>
@@ -7109,7 +7109,7 @@
         <v>32</v>
       </c>
       <c r="X40" t="s">
-        <v>39</v>
+        <v>204</v>
       </c>
       <c r="Y40" t="s">
         <v>298</v>
@@ -16571,13 +16571,13 @@
         <v>32</v>
       </c>
       <c r="U163" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V163" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W163" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X163" t="s">
         <v>49</v>
